--- a/测试单-电子书_txt-word_160914.xlsx
+++ b/测试单-电子书_txt-word_160914.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="784" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="539" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试说明" sheetId="13" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <sheet name="背景音乐音频格式" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$O$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">txt!$A$2:$O$136</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="275">
   <si>
     <t>编号</t>
   </si>
@@ -1938,52 +1938,6 @@
   </si>
   <si>
     <r>
-      <t>【跨页句子】翻行操作会导致翻页时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页码重复</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。大字体时容易复现。
-(【样例】英中obama inaugural Speeh.txt)大字体下，第9页第1段跨页显示。
-按左右键翻到第9页，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读到此段时，按下键翻两、三行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，当前页码仍是第9页。
-此时，按右键往后翻两、三页，再按左键回翻。翻到9页，再按左键，当前页码仍会是第9页。重复了</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>【页码播报】目录浏览--内存--“my dream.txt"，</t>
     </r>
     <r>
@@ -5723,6 +5677,65 @@
   </si>
   <si>
     <t>【tts数字发音】“￥10,000,000”分三段反显“￥10”“000”“000”，读成“10元”“000”“000”。不识别千分号？需要处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后鼎提供的中英文标点符号转换表有问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【跨页句子】翻行操作会导致翻页时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页码重复</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。大字体时容易复现。
+(【样例】英中obama inaugural Speeh.txt)大字体下，第9页第1段跨页显示。
+按左右键翻到第9页，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读到此段时，按下键翻两、三行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，当前页码仍是第9页。
+此时，按右键往后翻两、三页，再按左键回翻。翻到9页，再按左键，当前页码仍会是第9页。重复了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不明白什么意思，我这边跳转后正常的啊。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7561,16 +7574,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="214" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="209" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="209" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="210" t="s">
         <v>181</v>
-      </c>
-      <c r="F2" s="210" t="s">
-        <v>182</v>
       </c>
       <c r="G2" s="205"/>
     </row>
@@ -7583,7 +7596,7 @@
         <v>42623</v>
       </c>
       <c r="D3" s="207" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E3" s="190">
         <v>42616</v>
@@ -7600,13 +7613,13 @@
         <v>42627</v>
       </c>
       <c r="D4" s="207" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="221">
         <v>42625</v>
       </c>
       <c r="F4" s="206" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G4" s="178"/>
     </row>
@@ -7722,13 +7735,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="G105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F139" sqref="F139"/>
+      <selection pane="bottomRight" activeCell="M105" sqref="M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7799,7 +7813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="53" customFormat="1" ht="54">
+    <row r="3" spans="1:15" s="53" customFormat="1" ht="54" hidden="1">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -7816,13 +7830,13 @@
         <v>42555</v>
       </c>
       <c r="F3" s="216" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" s="92" t="s">
         <v>61</v>
       </c>
       <c r="H3" s="215" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="52"/>
@@ -7836,7 +7850,7 @@
       </c>
       <c r="O3" s="28"/>
     </row>
-    <row r="4" spans="1:15" s="76" customFormat="1" ht="81">
+    <row r="4" spans="1:15" s="76" customFormat="1" ht="81" hidden="1">
       <c r="A4" s="164">
         <v>2</v>
       </c>
@@ -7873,7 +7887,7 @@
       </c>
       <c r="O4" s="75"/>
     </row>
-    <row r="5" spans="1:15" s="76" customFormat="1" ht="54">
+    <row r="5" spans="1:15" s="76" customFormat="1" ht="54" hidden="1">
       <c r="A5" s="164">
         <v>3</v>
       </c>
@@ -7970,7 +7984,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="28"/>
     </row>
-    <row r="8" spans="1:15" s="76" customFormat="1" ht="27">
+    <row r="8" spans="1:15" s="76" customFormat="1" ht="27" hidden="1">
       <c r="A8" s="164">
         <v>6</v>
       </c>
@@ -8009,7 +8023,7 @@
       </c>
       <c r="O8" s="75"/>
     </row>
-    <row r="9" spans="1:15" s="76" customFormat="1" ht="40.5">
+    <row r="9" spans="1:15" s="76" customFormat="1" ht="40.5" hidden="1">
       <c r="A9" s="164">
         <v>7</v>
       </c>
@@ -8061,7 +8075,7 @@
         <v>42555</v>
       </c>
       <c r="F10" s="216" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G10" s="92" t="s">
         <v>61</v>
@@ -8075,7 +8089,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="28"/>
     </row>
-    <row r="11" spans="1:15" s="102" customFormat="1" ht="40.5">
+    <row r="11" spans="1:15" s="102" customFormat="1" ht="40.5" hidden="1">
       <c r="A11" s="164">
         <v>9</v>
       </c>
@@ -8112,7 +8126,7 @@
       <c r="N11" s="96"/>
       <c r="O11" s="101"/>
     </row>
-    <row r="12" spans="1:15" s="76" customFormat="1" ht="40.5">
+    <row r="12" spans="1:15" s="76" customFormat="1" ht="40.5" hidden="1">
       <c r="A12" s="164">
         <v>10</v>
       </c>
@@ -8147,7 +8161,7 @@
       <c r="N12" s="70"/>
       <c r="O12" s="75"/>
     </row>
-    <row r="13" spans="1:15" s="76" customFormat="1" ht="27">
+    <row r="13" spans="1:15" s="76" customFormat="1" ht="27" hidden="1">
       <c r="A13" s="164">
         <v>11</v>
       </c>
@@ -8182,7 +8196,7 @@
       <c r="N13" s="70"/>
       <c r="O13" s="75"/>
     </row>
-    <row r="14" spans="1:15" ht="81">
+    <row r="14" spans="1:15" ht="81" hidden="1">
       <c r="A14" s="164">
         <v>12</v>
       </c>
@@ -8199,7 +8213,7 @@
         <v>42555</v>
       </c>
       <c r="F14" s="168" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G14" s="26"/>
       <c r="H14" s="22"/>
@@ -8348,7 +8362,7 @@
         <v>42555</v>
       </c>
       <c r="F19" s="216" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="22"/>
@@ -8377,7 +8391,7 @@
         <v>42555</v>
       </c>
       <c r="F20" s="216" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="22"/>
@@ -8406,7 +8420,7 @@
         <v>42555</v>
       </c>
       <c r="F21" s="216" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="22"/>
@@ -8522,7 +8536,7 @@
         <v>42555</v>
       </c>
       <c r="F25" s="216" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="22"/>
@@ -8534,7 +8548,7 @@
       <c r="N25" s="23"/>
       <c r="O25" s="28"/>
     </row>
-    <row r="26" spans="1:15" s="76" customFormat="1" ht="54">
+    <row r="26" spans="1:15" s="76" customFormat="1" ht="54" hidden="1">
       <c r="A26" s="164">
         <v>24</v>
       </c>
@@ -8584,7 +8598,7 @@
         <v>42555</v>
       </c>
       <c r="F27" s="216" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G27" s="92" t="s">
         <v>116</v>
@@ -8615,7 +8629,7 @@
         <v>42555</v>
       </c>
       <c r="F28" s="216" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="22"/>
@@ -8644,7 +8658,7 @@
         <v>42555</v>
       </c>
       <c r="F29" s="216" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="22"/>
@@ -8673,7 +8687,7 @@
         <v>42555</v>
       </c>
       <c r="F30" s="216" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G30" s="92"/>
       <c r="H30" s="22"/>
@@ -8702,7 +8716,7 @@
         <v>42507</v>
       </c>
       <c r="F31" s="216" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="22"/>
@@ -8731,7 +8745,7 @@
         <v>42507</v>
       </c>
       <c r="F32" s="216" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G32" s="26"/>
       <c r="H32" s="22"/>
@@ -8830,7 +8844,7 @@
       <c r="N35" s="65"/>
       <c r="O35" s="28"/>
     </row>
-    <row r="36" spans="1:15" s="76" customFormat="1">
+    <row r="36" spans="1:15" s="76" customFormat="1" hidden="1">
       <c r="A36" s="164">
         <v>34</v>
       </c>
@@ -8847,20 +8861,20 @@
         <v>42555</v>
       </c>
       <c r="F36" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="G36" s="73" t="s">
+      <c r="H36" s="173" t="s">
         <v>185</v>
-      </c>
-      <c r="H36" s="173" t="s">
-        <v>186</v>
       </c>
       <c r="I36" s="159"/>
       <c r="J36" s="158">
         <v>42625</v>
       </c>
       <c r="K36" s="173" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L36" s="73"/>
       <c r="M36" s="73"/>
@@ -8927,7 +8941,7 @@
       <c r="N38" s="23"/>
       <c r="O38" s="28"/>
     </row>
-    <row r="39" spans="1:15" s="76" customFormat="1">
+    <row r="39" spans="1:15" s="76" customFormat="1" hidden="1">
       <c r="A39" s="164">
         <v>37</v>
       </c>
@@ -8979,7 +8993,7 @@
         <v>42555</v>
       </c>
       <c r="F40" s="216" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G40" s="92"/>
       <c r="H40" s="22"/>
@@ -8991,7 +9005,7 @@
       <c r="N40" s="23"/>
       <c r="O40" s="28"/>
     </row>
-    <row r="41" spans="1:15" s="76" customFormat="1" ht="54">
+    <row r="41" spans="1:15" s="76" customFormat="1" ht="54" hidden="1">
       <c r="A41" s="164">
         <v>39</v>
       </c>
@@ -9008,7 +9022,7 @@
         <v>42555</v>
       </c>
       <c r="F41" s="72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G41" s="73"/>
       <c r="H41" s="173" t="s">
@@ -9030,7 +9044,7 @@
       </c>
       <c r="O41" s="75"/>
     </row>
-    <row r="42" spans="1:15" s="53" customFormat="1" ht="108">
+    <row r="42" spans="1:15" s="53" customFormat="1" ht="108" hidden="1">
       <c r="A42" s="164">
         <v>40</v>
       </c>
@@ -9047,7 +9061,7 @@
         <v>42555</v>
       </c>
       <c r="F42" s="168" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G42" s="92" t="s">
         <v>61</v>
@@ -9067,7 +9081,7 @@
       </c>
       <c r="O42" s="28"/>
     </row>
-    <row r="43" spans="1:15" s="53" customFormat="1" ht="256.5">
+    <row r="43" spans="1:15" s="53" customFormat="1" ht="256.5" hidden="1">
       <c r="A43" s="164">
         <v>41</v>
       </c>
@@ -9084,7 +9098,7 @@
         <v>42555</v>
       </c>
       <c r="F43" s="168" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G43" s="92" t="s">
         <v>61</v>
@@ -9133,7 +9147,7 @@
       <c r="N44" s="23"/>
       <c r="O44" s="28"/>
     </row>
-    <row r="45" spans="1:15" s="53" customFormat="1" ht="94.5">
+    <row r="45" spans="1:15" s="53" customFormat="1" ht="94.5" hidden="1">
       <c r="A45" s="164">
         <v>43</v>
       </c>
@@ -9150,7 +9164,7 @@
         <v>42555</v>
       </c>
       <c r="F45" s="168" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="88" t="s">
@@ -9167,7 +9181,7 @@
       </c>
       <c r="O45" s="28"/>
     </row>
-    <row r="46" spans="1:15" s="53" customFormat="1" ht="270">
+    <row r="46" spans="1:15" s="53" customFormat="1" ht="270" hidden="1">
       <c r="A46" s="164">
         <v>44</v>
       </c>
@@ -9184,7 +9198,7 @@
         <v>42555</v>
       </c>
       <c r="F46" s="168" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="88" t="s">
@@ -9202,7 +9216,7 @@
       </c>
       <c r="O46" s="28"/>
     </row>
-    <row r="47" spans="1:15" s="53" customFormat="1" ht="121.5">
+    <row r="47" spans="1:15" s="53" customFormat="1" ht="121.5" hidden="1">
       <c r="A47" s="164">
         <v>45</v>
       </c>
@@ -9219,7 +9233,7 @@
         <v>42555</v>
       </c>
       <c r="F47" s="168" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="88" t="s">
@@ -9237,7 +9251,7 @@
       </c>
       <c r="O47" s="28"/>
     </row>
-    <row r="48" spans="1:15" s="230" customFormat="1" ht="94.5">
+    <row r="48" spans="1:15" s="230" customFormat="1" ht="94.5" hidden="1">
       <c r="A48" s="164">
         <v>46</v>
       </c>
@@ -9254,13 +9268,13 @@
         <v>42558</v>
       </c>
       <c r="F48" s="227" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G48" s="228" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H48" s="224" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I48" s="159"/>
       <c r="J48" s="225">
@@ -9301,7 +9315,7 @@
       <c r="N49" s="23"/>
       <c r="O49" s="28"/>
     </row>
-    <row r="50" spans="1:15" s="219" customFormat="1" ht="108">
+    <row r="50" spans="1:15" s="219" customFormat="1" ht="108" hidden="1">
       <c r="A50" s="164">
         <v>48</v>
       </c>
@@ -9318,13 +9332,13 @@
         <v>42558</v>
       </c>
       <c r="F50" s="216" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G50" s="217" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H50" s="215" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I50" s="223"/>
       <c r="J50" s="221"/>
@@ -9338,7 +9352,7 @@
       </c>
       <c r="O50" s="218"/>
     </row>
-    <row r="51" spans="1:15" s="76" customFormat="1" ht="27">
+    <row r="51" spans="1:15" s="76" customFormat="1" ht="27" hidden="1">
       <c r="A51" s="164">
         <v>49</v>
       </c>
@@ -9372,7 +9386,7 @@
       <c r="N51" s="70"/>
       <c r="O51" s="75"/>
     </row>
-    <row r="52" spans="1:15" s="68" customFormat="1" ht="27">
+    <row r="52" spans="1:15" s="68" customFormat="1" ht="27" hidden="1">
       <c r="A52" s="164">
         <v>50</v>
       </c>
@@ -9389,11 +9403,11 @@
         <v>42612</v>
       </c>
       <c r="F52" s="216" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G52" s="92"/>
       <c r="H52" s="215" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I52" s="67"/>
       <c r="J52" s="65"/>
@@ -9436,7 +9450,7 @@
       <c r="N53" s="89"/>
       <c r="O53" s="94"/>
     </row>
-    <row r="54" spans="1:15" s="86" customFormat="1" ht="94.5">
+    <row r="54" spans="1:15" s="86" customFormat="1" ht="94.5" hidden="1">
       <c r="A54" s="164">
         <v>52</v>
       </c>
@@ -9453,13 +9467,13 @@
         <v>42612</v>
       </c>
       <c r="F54" s="216" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G54" s="92" t="s">
         <v>61</v>
       </c>
       <c r="H54" s="215" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I54" s="93"/>
       <c r="J54" s="93"/>
@@ -9473,7 +9487,7 @@
       </c>
       <c r="O54" s="94"/>
     </row>
-    <row r="55" spans="1:15" s="230" customFormat="1">
+    <row r="55" spans="1:15" s="230" customFormat="1" hidden="1">
       <c r="A55" s="164">
         <v>53</v>
       </c>
@@ -9490,13 +9504,13 @@
         <v>42612</v>
       </c>
       <c r="F55" s="227" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" s="228" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" s="224" t="s">
         <v>204</v>
-      </c>
-      <c r="G55" s="228" t="s">
-        <v>197</v>
-      </c>
-      <c r="H55" s="224" t="s">
-        <v>205</v>
       </c>
       <c r="I55" s="159"/>
       <c r="J55" s="225">
@@ -9512,7 +9526,7 @@
       </c>
       <c r="O55" s="229"/>
     </row>
-    <row r="56" spans="1:15" s="86" customFormat="1" ht="27">
+    <row r="56" spans="1:15" s="86" customFormat="1" ht="27" hidden="1">
       <c r="A56" s="164">
         <v>54</v>
       </c>
@@ -9529,11 +9543,11 @@
         <v>42612</v>
       </c>
       <c r="F56" s="216" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G56" s="92"/>
       <c r="H56" s="224" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I56" s="159"/>
       <c r="J56" s="225">
@@ -9549,7 +9563,7 @@
       </c>
       <c r="O56" s="94"/>
     </row>
-    <row r="57" spans="1:15" s="86" customFormat="1" ht="175.5">
+    <row r="57" spans="1:15" s="86" customFormat="1" ht="175.5" hidden="1">
       <c r="A57" s="164">
         <v>55</v>
       </c>
@@ -9566,7 +9580,7 @@
         <v>42612</v>
       </c>
       <c r="F57" s="216" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G57" s="92" t="s">
         <v>61</v>
@@ -9586,7 +9600,7 @@
       </c>
       <c r="O57" s="94"/>
     </row>
-    <row r="58" spans="1:15" s="76" customFormat="1" ht="27">
+    <row r="58" spans="1:15" s="76" customFormat="1" ht="27" hidden="1">
       <c r="A58" s="164">
         <v>56</v>
       </c>
@@ -9623,7 +9637,7 @@
       </c>
       <c r="O58" s="75"/>
     </row>
-    <row r="59" spans="1:15" s="76" customFormat="1" ht="27">
+    <row r="59" spans="1:15" s="76" customFormat="1" ht="27" hidden="1">
       <c r="A59" s="164">
         <v>57</v>
       </c>
@@ -9677,7 +9691,7 @@
         <v>42612</v>
       </c>
       <c r="F60" s="216" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G60" s="92"/>
       <c r="H60" s="88"/>
@@ -9706,7 +9720,7 @@
         <v>42612</v>
       </c>
       <c r="F61" s="216" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G61" s="92"/>
       <c r="H61" s="88"/>
@@ -9747,7 +9761,7 @@
       <c r="N62" s="89"/>
       <c r="O62" s="94"/>
     </row>
-    <row r="63" spans="1:15" s="76" customFormat="1">
+    <row r="63" spans="1:15" s="76" customFormat="1" hidden="1">
       <c r="A63" s="164">
         <v>61</v>
       </c>
@@ -9803,7 +9817,7 @@
         <v>42612</v>
       </c>
       <c r="F64" s="216" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G64" s="92" t="s">
         <v>61</v>
@@ -9817,7 +9831,7 @@
       <c r="N64" s="89"/>
       <c r="O64" s="94"/>
     </row>
-    <row r="65" spans="1:15" s="76" customFormat="1">
+    <row r="65" spans="1:15" s="76" customFormat="1" hidden="1">
       <c r="A65" s="164">
         <v>63</v>
       </c>
@@ -9856,7 +9870,7 @@
       </c>
       <c r="O65" s="75"/>
     </row>
-    <row r="66" spans="1:15" s="76" customFormat="1">
+    <row r="66" spans="1:15" s="76" customFormat="1" hidden="1">
       <c r="A66" s="164">
         <v>64</v>
       </c>
@@ -9895,7 +9909,7 @@
       </c>
       <c r="O66" s="75"/>
     </row>
-    <row r="67" spans="1:15" s="106" customFormat="1" ht="40.5">
+    <row r="67" spans="1:15" s="106" customFormat="1" ht="40.5" hidden="1">
       <c r="A67" s="164">
         <v>65</v>
       </c>
@@ -9934,7 +9948,7 @@
       </c>
       <c r="O67" s="75"/>
     </row>
-    <row r="68" spans="1:15" s="76" customFormat="1" ht="27">
+    <row r="68" spans="1:15" s="76" customFormat="1" ht="27" hidden="1">
       <c r="A68" s="164">
         <v>66</v>
       </c>
@@ -9973,7 +9987,7 @@
       </c>
       <c r="O68" s="75"/>
     </row>
-    <row r="69" spans="1:15" s="76" customFormat="1">
+    <row r="69" spans="1:15" s="76" customFormat="1" hidden="1">
       <c r="A69" s="164">
         <v>67</v>
       </c>
@@ -10012,7 +10026,7 @@
       </c>
       <c r="O69" s="75"/>
     </row>
-    <row r="70" spans="1:15" s="86" customFormat="1" ht="40.5">
+    <row r="70" spans="1:15" s="86" customFormat="1" ht="40.5" hidden="1">
       <c r="A70" s="164">
         <v>68</v>
       </c>
@@ -10029,7 +10043,7 @@
         <v>42612</v>
       </c>
       <c r="F70" s="216" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G70" s="92" t="s">
         <v>61</v>
@@ -10051,7 +10065,7 @@
       </c>
       <c r="O70" s="94"/>
     </row>
-    <row r="71" spans="1:15" s="230" customFormat="1" ht="27">
+    <row r="71" spans="1:15" s="230" customFormat="1" ht="27" hidden="1">
       <c r="A71" s="164">
         <v>69</v>
       </c>
@@ -10068,13 +10082,13 @@
         <v>42612</v>
       </c>
       <c r="F71" s="227" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G71" s="228" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H71" s="224" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I71" s="159"/>
       <c r="J71" s="225">
@@ -10085,14 +10099,14 @@
       </c>
       <c r="L71" s="228"/>
       <c r="M71" s="228" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N71" s="225">
         <v>42616</v>
       </c>
       <c r="O71" s="229"/>
     </row>
-    <row r="72" spans="1:15" s="76" customFormat="1">
+    <row r="72" spans="1:15" s="76" customFormat="1" hidden="1">
       <c r="A72" s="164">
         <v>70</v>
       </c>
@@ -10131,7 +10145,7 @@
       </c>
       <c r="O72" s="75"/>
     </row>
-    <row r="73" spans="1:15" s="86" customFormat="1" ht="54">
+    <row r="73" spans="1:15" s="86" customFormat="1" ht="54" hidden="1">
       <c r="A73" s="164">
         <v>71</v>
       </c>
@@ -10148,7 +10162,7 @@
         <v>42612</v>
       </c>
       <c r="F73" s="160" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G73" s="92" t="s">
         <v>61</v>
@@ -10168,7 +10182,7 @@
       </c>
       <c r="O73" s="94"/>
     </row>
-    <row r="74" spans="1:15" s="230" customFormat="1" ht="27">
+    <row r="74" spans="1:15" s="230" customFormat="1" ht="27" hidden="1">
       <c r="A74" s="164">
         <v>72</v>
       </c>
@@ -10185,7 +10199,7 @@
         <v>42612</v>
       </c>
       <c r="F74" s="227" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G74" s="228" t="s">
         <v>61</v>
@@ -10209,7 +10223,7 @@
       </c>
       <c r="O74" s="229"/>
     </row>
-    <row r="75" spans="1:15" s="76" customFormat="1">
+    <row r="75" spans="1:15" s="76" customFormat="1" hidden="1">
       <c r="A75" s="164">
         <v>73</v>
       </c>
@@ -10248,7 +10262,7 @@
       </c>
       <c r="O75" s="75"/>
     </row>
-    <row r="76" spans="1:15" s="68" customFormat="1" ht="54">
+    <row r="76" spans="1:15" s="68" customFormat="1" ht="54" hidden="1">
       <c r="A76" s="164">
         <v>74</v>
       </c>
@@ -10265,7 +10279,7 @@
         <v>42612</v>
       </c>
       <c r="F76" s="216" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G76" s="92"/>
       <c r="H76" s="88" t="s">
@@ -10285,7 +10299,7 @@
       </c>
       <c r="O76" s="94"/>
     </row>
-    <row r="77" spans="1:15" s="86" customFormat="1" ht="40.5">
+    <row r="77" spans="1:15" s="86" customFormat="1" ht="40.5" hidden="1">
       <c r="A77" s="164">
         <v>75</v>
       </c>
@@ -10302,7 +10316,7 @@
         <v>42612</v>
       </c>
       <c r="F77" s="216" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G77" s="92"/>
       <c r="H77" s="88" t="s">
@@ -10320,7 +10334,7 @@
       </c>
       <c r="O77" s="94"/>
     </row>
-    <row r="78" spans="1:15" s="230" customFormat="1" ht="40.5">
+    <row r="78" spans="1:15" s="230" customFormat="1" ht="40.5" hidden="1">
       <c r="A78" s="164">
         <v>76</v>
       </c>
@@ -10337,7 +10351,7 @@
         <v>42612</v>
       </c>
       <c r="F78" s="227" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G78" s="228"/>
       <c r="H78" s="224" t="s">
@@ -10359,7 +10373,7 @@
       </c>
       <c r="O78" s="229"/>
     </row>
-    <row r="79" spans="1:15" s="230" customFormat="1" ht="40.5">
+    <row r="79" spans="1:15" s="230" customFormat="1" ht="40.5" hidden="1">
       <c r="A79" s="164">
         <v>77</v>
       </c>
@@ -10376,7 +10390,7 @@
         <v>42612</v>
       </c>
       <c r="F79" s="227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G79" s="228"/>
       <c r="H79" s="224" t="s">
@@ -10413,7 +10427,7 @@
         <v>42612</v>
       </c>
       <c r="F80" s="216" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G80" s="217" t="s">
         <v>61</v>
@@ -10427,7 +10441,7 @@
       <c r="N80" s="89"/>
       <c r="O80" s="94"/>
     </row>
-    <row r="81" spans="1:15" s="86" customFormat="1" ht="40.5">
+    <row r="81" spans="1:15" s="86" customFormat="1" ht="40.5" hidden="1">
       <c r="A81" s="164">
         <v>79</v>
       </c>
@@ -10444,7 +10458,7 @@
         <v>42612</v>
       </c>
       <c r="F81" s="216" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G81" s="92"/>
       <c r="H81" s="215" t="s">
@@ -10481,7 +10495,7 @@
         <v>42612</v>
       </c>
       <c r="F82" s="216" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G82" s="92" t="s">
         <v>61</v>
@@ -10495,7 +10509,7 @@
       <c r="N82" s="23"/>
       <c r="O82" s="28"/>
     </row>
-    <row r="83" spans="1:15" s="76" customFormat="1" ht="27">
+    <row r="83" spans="1:15" s="76" customFormat="1" ht="27" hidden="1">
       <c r="A83" s="164">
         <v>81</v>
       </c>
@@ -10532,7 +10546,7 @@
       </c>
       <c r="O83" s="75"/>
     </row>
-    <row r="84" spans="1:15" s="230" customFormat="1">
+    <row r="84" spans="1:15" s="230" customFormat="1" hidden="1">
       <c r="A84" s="164">
         <v>82</v>
       </c>
@@ -10549,13 +10563,13 @@
         <v>42616</v>
       </c>
       <c r="F84" s="231" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G84" s="228" t="s">
         <v>61</v>
       </c>
       <c r="H84" s="224" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I84" s="159"/>
       <c r="J84" s="225">
@@ -10619,7 +10633,7 @@
         <v>42616</v>
       </c>
       <c r="F86" s="160" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G86" s="92" t="s">
         <v>61</v>
@@ -10652,7 +10666,7 @@
         <v>42616</v>
       </c>
       <c r="F87" s="216" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G87" s="92" t="s">
         <v>61</v>
@@ -10685,7 +10699,7 @@
         <v>42616</v>
       </c>
       <c r="F88" s="144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="86" customFormat="1">
@@ -10705,7 +10719,7 @@
         <v>42616</v>
       </c>
       <c r="F89" s="216" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G89" s="92" t="s">
         <v>61</v>
@@ -10895,7 +10909,7 @@
         <v>42616</v>
       </c>
       <c r="F95" s="216" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G95" s="92"/>
       <c r="H95" s="69"/>
@@ -11052,7 +11066,7 @@
         <v>42616</v>
       </c>
       <c r="F100" s="216" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G100" s="92"/>
       <c r="H100" s="88"/>
@@ -11083,7 +11097,7 @@
         <v>42616</v>
       </c>
       <c r="F101" s="160" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G101" s="92"/>
       <c r="H101" s="88"/>
@@ -11097,7 +11111,7 @@
       </c>
       <c r="O101" s="94"/>
     </row>
-    <row r="102" spans="1:15" s="230" customFormat="1" ht="27">
+    <row r="102" spans="1:15" s="230" customFormat="1" ht="27" hidden="1">
       <c r="A102" s="164">
         <v>100</v>
       </c>
@@ -11114,11 +11128,11 @@
         <v>42616</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G102" s="228"/>
       <c r="H102" s="224" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I102" s="159"/>
       <c r="J102" s="225">
@@ -11134,7 +11148,7 @@
       </c>
       <c r="O102" s="229"/>
     </row>
-    <row r="103" spans="1:15" s="230" customFormat="1">
+    <row r="103" spans="1:15" s="230" customFormat="1" hidden="1">
       <c r="A103" s="164">
         <v>101</v>
       </c>
@@ -11155,7 +11169,7 @@
       </c>
       <c r="G103" s="228"/>
       <c r="H103" s="224" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I103" s="159"/>
       <c r="J103" s="225">
@@ -11171,7 +11185,7 @@
       </c>
       <c r="O103" s="229"/>
     </row>
-    <row r="104" spans="1:15" s="230" customFormat="1" ht="27">
+    <row r="104" spans="1:15" s="230" customFormat="1" ht="27" hidden="1">
       <c r="A104" s="164">
         <v>102</v>
       </c>
@@ -11188,11 +11202,11 @@
         <v>42616</v>
       </c>
       <c r="F104" s="227" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G104" s="228"/>
       <c r="H104" s="224" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I104" s="159"/>
       <c r="J104" s="225">
@@ -11235,13 +11249,15 @@
       <c r="J105" s="93"/>
       <c r="K105" s="88"/>
       <c r="L105" s="92"/>
-      <c r="M105" s="92"/>
+      <c r="M105" s="217" t="s">
+        <v>274</v>
+      </c>
       <c r="N105" s="89">
         <v>42616</v>
       </c>
       <c r="O105" s="94"/>
     </row>
-    <row r="106" spans="1:15" s="230" customFormat="1">
+    <row r="106" spans="1:15" s="230" customFormat="1" hidden="1">
       <c r="A106" s="164">
         <v>104</v>
       </c>
@@ -11262,7 +11278,7 @@
       </c>
       <c r="G106" s="228"/>
       <c r="H106" s="224" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I106" s="159"/>
       <c r="J106" s="225">
@@ -11551,7 +11567,7 @@
         <v>42625</v>
       </c>
       <c r="F115" s="160" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G115" s="153"/>
       <c r="H115" s="162"/>
@@ -11608,8 +11624,8 @@
       <c r="E117" s="151">
         <v>42625</v>
       </c>
-      <c r="F117" s="152" t="s">
-        <v>178</v>
+      <c r="F117" s="216" t="s">
+        <v>273</v>
       </c>
       <c r="G117" s="153"/>
       <c r="H117" s="162"/>
@@ -11638,7 +11654,7 @@
         <v>42625</v>
       </c>
       <c r="F118" s="216" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G118" s="153"/>
       <c r="H118" s="162"/>
@@ -11646,7 +11662,9 @@
       <c r="J118" s="158"/>
       <c r="K118" s="149"/>
       <c r="L118" s="153"/>
-      <c r="M118" s="153"/>
+      <c r="M118" s="217" t="s">
+        <v>272</v>
+      </c>
       <c r="N118" s="150"/>
       <c r="O118" s="154"/>
     </row>
@@ -11667,7 +11685,7 @@
         <v>42625</v>
       </c>
       <c r="F119" s="152" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G119" s="153"/>
       <c r="H119" s="162"/>
@@ -11675,11 +11693,13 @@
       <c r="J119" s="158"/>
       <c r="K119" s="149"/>
       <c r="L119" s="153"/>
-      <c r="M119" s="153"/>
+      <c r="M119" s="217" t="s">
+        <v>272</v>
+      </c>
       <c r="N119" s="150"/>
       <c r="O119" s="154"/>
     </row>
-    <row r="120" spans="1:15" ht="94.5">
+    <row r="120" spans="1:15" ht="94.5" hidden="1">
       <c r="A120" s="164">
         <v>118</v>
       </c>
@@ -11696,19 +11716,21 @@
         <v>42625</v>
       </c>
       <c r="F120" s="216" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G120" s="153"/>
       <c r="H120" s="162"/>
       <c r="I120" s="159"/>
       <c r="J120" s="158"/>
-      <c r="K120" s="149"/>
+      <c r="K120" s="215" t="s">
+        <v>271</v>
+      </c>
       <c r="L120" s="153"/>
       <c r="M120" s="153"/>
       <c r="N120" s="150"/>
       <c r="O120" s="154"/>
     </row>
-    <row r="121" spans="1:15" ht="108">
+    <row r="121" spans="1:15" ht="108" hidden="1">
       <c r="A121" s="164">
         <v>119</v>
       </c>
@@ -11725,13 +11747,15 @@
         <v>42625</v>
       </c>
       <c r="F121" s="216" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G121" s="153"/>
       <c r="H121" s="162"/>
       <c r="I121" s="159"/>
       <c r="J121" s="158"/>
-      <c r="K121" s="149"/>
+      <c r="K121" s="215" t="s">
+        <v>271</v>
+      </c>
       <c r="L121" s="153"/>
       <c r="M121" s="153"/>
       <c r="N121" s="150"/>
@@ -11754,7 +11778,7 @@
         <v>42625</v>
       </c>
       <c r="F122" s="160" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G122" s="153"/>
       <c r="H122" s="162"/>
@@ -11783,7 +11807,7 @@
         <v>42626</v>
       </c>
       <c r="F123" s="216" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G123" s="217"/>
       <c r="H123" s="215"/>
@@ -11795,7 +11819,7 @@
       <c r="N123" s="221"/>
       <c r="O123" s="218"/>
     </row>
-    <row r="124" spans="1:15" ht="40.5">
+    <row r="124" spans="1:15" ht="40.5" hidden="1">
       <c r="A124" s="164">
         <v>122</v>
       </c>
@@ -11812,19 +11836,21 @@
         <v>42626</v>
       </c>
       <c r="F124" s="216" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G124" s="217"/>
       <c r="H124" s="215"/>
       <c r="I124" s="223"/>
       <c r="J124" s="221"/>
-      <c r="K124" s="215"/>
+      <c r="K124" s="215" t="s">
+        <v>271</v>
+      </c>
       <c r="L124" s="217"/>
       <c r="M124" s="217"/>
       <c r="N124" s="221"/>
       <c r="O124" s="218"/>
     </row>
-    <row r="125" spans="1:15" ht="40.5">
+    <row r="125" spans="1:15" ht="40.5" hidden="1">
       <c r="A125" s="164">
         <v>123</v>
       </c>
@@ -11841,13 +11867,15 @@
         <v>42627</v>
       </c>
       <c r="F125" s="216" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G125" s="217"/>
       <c r="H125" s="215"/>
       <c r="I125" s="223"/>
       <c r="J125" s="221"/>
-      <c r="K125" s="215"/>
+      <c r="K125" s="215" t="s">
+        <v>271</v>
+      </c>
       <c r="L125" s="217"/>
       <c r="M125" s="217"/>
       <c r="N125" s="221"/>
@@ -11870,10 +11898,10 @@
         <v>42627</v>
       </c>
       <c r="F126" s="216" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G126" s="217" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H126" s="215"/>
       <c r="I126" s="223"/>
@@ -11901,10 +11929,10 @@
         <v>42627</v>
       </c>
       <c r="F127" s="216" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G127" s="217" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H127" s="215"/>
       <c r="I127" s="223"/>
@@ -11932,10 +11960,10 @@
         <v>42627</v>
       </c>
       <c r="F128" s="216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G128" s="217" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H128" s="215"/>
       <c r="I128" s="170"/>
@@ -11967,10 +11995,10 @@
         <v>42627</v>
       </c>
       <c r="F129" s="216" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G129" s="217" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H129" s="215"/>
       <c r="I129" s="170"/>
@@ -12002,10 +12030,10 @@
         <v>42627</v>
       </c>
       <c r="F130" s="216" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G130" s="217" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H130" s="215"/>
       <c r="I130" s="170"/>
@@ -12037,10 +12065,10 @@
         <v>42627</v>
       </c>
       <c r="F131" s="216" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G131" s="217" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H131" s="215"/>
       <c r="I131" s="170"/>
@@ -12072,10 +12100,10 @@
         <v>42627</v>
       </c>
       <c r="F132" s="216" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G132" s="217" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H132" s="215"/>
       <c r="I132" s="170"/>
@@ -12107,7 +12135,7 @@
         <v>42627</v>
       </c>
       <c r="F133" s="216" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G133" s="217"/>
       <c r="H133" s="215"/>
@@ -12140,7 +12168,7 @@
         <v>42627</v>
       </c>
       <c r="F134" s="216" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G134" s="217"/>
       <c r="H134" s="215"/>
@@ -12173,7 +12201,7 @@
         <v>42627</v>
       </c>
       <c r="F135" s="216" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G135" s="217"/>
       <c r="H135" s="215"/>
@@ -12197,7 +12225,7 @@
         <v>20</v>
       </c>
       <c r="C136" s="215" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D136" s="221">
         <v>42625</v>
@@ -12206,10 +12234,10 @@
         <v>42627</v>
       </c>
       <c r="F136" s="160" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G136" s="217" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H136" s="215"/>
       <c r="I136" s="170"/>
@@ -12225,8 +12253,15 @@
       <c r="O136" s="218"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O133">
-    <filterColumn colId="10"/>
+  <autoFilter ref="A2:O136">
+    <filterColumn colId="7">
+      <filters blank="1">
+        <filter val="返回"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="11"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12546,7 +12581,7 @@
         <v>42627</v>
       </c>
       <c r="F10" s="160" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G10" s="217"/>
       <c r="H10" s="215"/>
@@ -13658,7 +13693,7 @@
         <v>42625</v>
       </c>
       <c r="F4" s="216" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G4" s="169"/>
       <c r="H4" s="173"/>
@@ -14468,7 +14503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -14546,7 +14581,7 @@
         <v>42625</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -15015,7 +15050,7 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="104" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="2:2">

--- a/测试单-电子书_txt-word_160914.xlsx
+++ b/测试单-电子书_txt-word_160914.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="275">
   <si>
     <t>编号</t>
   </si>
@@ -5735,7 +5735,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不明白什么意思，我这边跳转后正常的啊。</t>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7739,10 +7739,10 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="G116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M105" sqref="M105"/>
+      <selection pane="bottomRight" activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11222,7 +11222,7 @@
       </c>
       <c r="O104" s="229"/>
     </row>
-    <row r="105" spans="1:15" s="86" customFormat="1" ht="27">
+    <row r="105" spans="1:15" s="86" customFormat="1" ht="27" hidden="1">
       <c r="A105" s="164">
         <v>103</v>
       </c>
@@ -11247,11 +11247,11 @@
       <c r="H105" s="88"/>
       <c r="I105" s="93"/>
       <c r="J105" s="93"/>
-      <c r="K105" s="88"/>
+      <c r="K105" s="215" t="s">
+        <v>77</v>
+      </c>
       <c r="L105" s="92"/>
-      <c r="M105" s="217" t="s">
-        <v>274</v>
-      </c>
+      <c r="M105" s="217"/>
       <c r="N105" s="89">
         <v>42616</v>
       </c>
@@ -11637,7 +11637,7 @@
       <c r="N117" s="150"/>
       <c r="O117" s="154"/>
     </row>
-    <row r="118" spans="1:15" ht="40.5">
+    <row r="118" spans="1:15" ht="40.5" hidden="1">
       <c r="A118" s="164">
         <v>116</v>
       </c>
@@ -11660,7 +11660,9 @@
       <c r="H118" s="162"/>
       <c r="I118" s="159"/>
       <c r="J118" s="158"/>
-      <c r="K118" s="149"/>
+      <c r="K118" s="215" t="s">
+        <v>274</v>
+      </c>
       <c r="L118" s="153"/>
       <c r="M118" s="217" t="s">
         <v>272</v>
@@ -11668,7 +11670,7 @@
       <c r="N118" s="150"/>
       <c r="O118" s="154"/>
     </row>
-    <row r="119" spans="1:15" ht="27">
+    <row r="119" spans="1:15" ht="27" hidden="1">
       <c r="A119" s="164">
         <v>117</v>
       </c>
@@ -11691,7 +11693,9 @@
       <c r="H119" s="162"/>
       <c r="I119" s="159"/>
       <c r="J119" s="158"/>
-      <c r="K119" s="149"/>
+      <c r="K119" s="215" t="s">
+        <v>274</v>
+      </c>
       <c r="L119" s="153"/>
       <c r="M119" s="217" t="s">
         <v>272</v>
@@ -12255,7 +12259,7 @@
   </sheetData>
   <autoFilter ref="A2:O136">
     <filterColumn colId="7">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_160914.xlsx
+++ b/测试单-电子书_txt-word_160914.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="276">
   <si>
     <t>编号</t>
   </si>
@@ -5732,6 +5732,10 @@
       <t>，当前页码仍是第9页。
 此时，按右键往后翻两、三页，再按左键回翻。翻到9页，再按左键，当前页码仍会是第9页。重复了</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7735,14 +7739,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F118" sqref="F118"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:O136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7813,7 +7816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="53" customFormat="1" ht="54" hidden="1">
+    <row r="3" spans="1:15" s="53" customFormat="1" ht="54">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -7850,7 +7853,7 @@
       </c>
       <c r="O3" s="28"/>
     </row>
-    <row r="4" spans="1:15" s="76" customFormat="1" ht="81" hidden="1">
+    <row r="4" spans="1:15" s="76" customFormat="1" ht="81">
       <c r="A4" s="164">
         <v>2</v>
       </c>
@@ -7887,7 +7890,7 @@
       </c>
       <c r="O4" s="75"/>
     </row>
-    <row r="5" spans="1:15" s="76" customFormat="1" ht="54" hidden="1">
+    <row r="5" spans="1:15" s="76" customFormat="1" ht="54">
       <c r="A5" s="164">
         <v>3</v>
       </c>
@@ -7984,7 +7987,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="28"/>
     </row>
-    <row r="8" spans="1:15" s="76" customFormat="1" ht="27" hidden="1">
+    <row r="8" spans="1:15" s="76" customFormat="1" ht="27">
       <c r="A8" s="164">
         <v>6</v>
       </c>
@@ -8023,7 +8026,7 @@
       </c>
       <c r="O8" s="75"/>
     </row>
-    <row r="9" spans="1:15" s="76" customFormat="1" ht="40.5" hidden="1">
+    <row r="9" spans="1:15" s="76" customFormat="1" ht="40.5">
       <c r="A9" s="164">
         <v>7</v>
       </c>
@@ -8089,7 +8092,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="28"/>
     </row>
-    <row r="11" spans="1:15" s="102" customFormat="1" ht="40.5" hidden="1">
+    <row r="11" spans="1:15" s="102" customFormat="1" ht="40.5">
       <c r="A11" s="164">
         <v>9</v>
       </c>
@@ -8126,7 +8129,7 @@
       <c r="N11" s="96"/>
       <c r="O11" s="101"/>
     </row>
-    <row r="12" spans="1:15" s="76" customFormat="1" ht="40.5" hidden="1">
+    <row r="12" spans="1:15" s="76" customFormat="1" ht="40.5">
       <c r="A12" s="164">
         <v>10</v>
       </c>
@@ -8161,7 +8164,7 @@
       <c r="N12" s="70"/>
       <c r="O12" s="75"/>
     </row>
-    <row r="13" spans="1:15" s="76" customFormat="1" ht="27" hidden="1">
+    <row r="13" spans="1:15" s="76" customFormat="1" ht="27">
       <c r="A13" s="164">
         <v>11</v>
       </c>
@@ -8196,7 +8199,7 @@
       <c r="N13" s="70"/>
       <c r="O13" s="75"/>
     </row>
-    <row r="14" spans="1:15" ht="81" hidden="1">
+    <row r="14" spans="1:15" ht="81">
       <c r="A14" s="164">
         <v>12</v>
       </c>
@@ -8548,7 +8551,7 @@
       <c r="N25" s="23"/>
       <c r="O25" s="28"/>
     </row>
-    <row r="26" spans="1:15" s="76" customFormat="1" ht="54" hidden="1">
+    <row r="26" spans="1:15" s="76" customFormat="1" ht="54">
       <c r="A26" s="164">
         <v>24</v>
       </c>
@@ -8844,7 +8847,7 @@
       <c r="N35" s="65"/>
       <c r="O35" s="28"/>
     </row>
-    <row r="36" spans="1:15" s="76" customFormat="1" hidden="1">
+    <row r="36" spans="1:15" s="76" customFormat="1">
       <c r="A36" s="164">
         <v>34</v>
       </c>
@@ -8941,7 +8944,7 @@
       <c r="N38" s="23"/>
       <c r="O38" s="28"/>
     </row>
-    <row r="39" spans="1:15" s="76" customFormat="1" hidden="1">
+    <row r="39" spans="1:15" s="76" customFormat="1">
       <c r="A39" s="164">
         <v>37</v>
       </c>
@@ -9005,7 +9008,7 @@
       <c r="N40" s="23"/>
       <c r="O40" s="28"/>
     </row>
-    <row r="41" spans="1:15" s="76" customFormat="1" ht="54" hidden="1">
+    <row r="41" spans="1:15" s="76" customFormat="1" ht="54">
       <c r="A41" s="164">
         <v>39</v>
       </c>
@@ -9044,7 +9047,7 @@
       </c>
       <c r="O41" s="75"/>
     </row>
-    <row r="42" spans="1:15" s="53" customFormat="1" ht="108" hidden="1">
+    <row r="42" spans="1:15" s="53" customFormat="1" ht="108">
       <c r="A42" s="164">
         <v>40</v>
       </c>
@@ -9081,7 +9084,7 @@
       </c>
       <c r="O42" s="28"/>
     </row>
-    <row r="43" spans="1:15" s="53" customFormat="1" ht="256.5" hidden="1">
+    <row r="43" spans="1:15" s="53" customFormat="1" ht="256.5">
       <c r="A43" s="164">
         <v>41</v>
       </c>
@@ -9147,7 +9150,7 @@
       <c r="N44" s="23"/>
       <c r="O44" s="28"/>
     </row>
-    <row r="45" spans="1:15" s="53" customFormat="1" ht="94.5" hidden="1">
+    <row r="45" spans="1:15" s="53" customFormat="1" ht="94.5">
       <c r="A45" s="164">
         <v>43</v>
       </c>
@@ -9181,7 +9184,7 @@
       </c>
       <c r="O45" s="28"/>
     </row>
-    <row r="46" spans="1:15" s="53" customFormat="1" ht="270" hidden="1">
+    <row r="46" spans="1:15" s="53" customFormat="1" ht="270">
       <c r="A46" s="164">
         <v>44</v>
       </c>
@@ -9216,7 +9219,7 @@
       </c>
       <c r="O46" s="28"/>
     </row>
-    <row r="47" spans="1:15" s="53" customFormat="1" ht="121.5" hidden="1">
+    <row r="47" spans="1:15" s="53" customFormat="1" ht="121.5">
       <c r="A47" s="164">
         <v>45</v>
       </c>
@@ -9251,7 +9254,7 @@
       </c>
       <c r="O47" s="28"/>
     </row>
-    <row r="48" spans="1:15" s="230" customFormat="1" ht="94.5" hidden="1">
+    <row r="48" spans="1:15" s="230" customFormat="1" ht="94.5">
       <c r="A48" s="164">
         <v>46</v>
       </c>
@@ -9315,7 +9318,7 @@
       <c r="N49" s="23"/>
       <c r="O49" s="28"/>
     </row>
-    <row r="50" spans="1:15" s="219" customFormat="1" ht="108" hidden="1">
+    <row r="50" spans="1:15" s="219" customFormat="1" ht="108">
       <c r="A50" s="164">
         <v>48</v>
       </c>
@@ -9352,7 +9355,7 @@
       </c>
       <c r="O50" s="218"/>
     </row>
-    <row r="51" spans="1:15" s="76" customFormat="1" ht="27" hidden="1">
+    <row r="51" spans="1:15" s="76" customFormat="1" ht="27">
       <c r="A51" s="164">
         <v>49</v>
       </c>
@@ -9386,7 +9389,7 @@
       <c r="N51" s="70"/>
       <c r="O51" s="75"/>
     </row>
-    <row r="52" spans="1:15" s="68" customFormat="1" ht="27" hidden="1">
+    <row r="52" spans="1:15" s="68" customFormat="1" ht="27">
       <c r="A52" s="164">
         <v>50</v>
       </c>
@@ -9450,7 +9453,7 @@
       <c r="N53" s="89"/>
       <c r="O53" s="94"/>
     </row>
-    <row r="54" spans="1:15" s="86" customFormat="1" ht="94.5" hidden="1">
+    <row r="54" spans="1:15" s="86" customFormat="1" ht="94.5">
       <c r="A54" s="164">
         <v>52</v>
       </c>
@@ -9487,7 +9490,7 @@
       </c>
       <c r="O54" s="94"/>
     </row>
-    <row r="55" spans="1:15" s="230" customFormat="1" hidden="1">
+    <row r="55" spans="1:15" s="230" customFormat="1">
       <c r="A55" s="164">
         <v>53</v>
       </c>
@@ -9526,7 +9529,7 @@
       </c>
       <c r="O55" s="229"/>
     </row>
-    <row r="56" spans="1:15" s="86" customFormat="1" ht="27" hidden="1">
+    <row r="56" spans="1:15" s="86" customFormat="1" ht="27">
       <c r="A56" s="164">
         <v>54</v>
       </c>
@@ -9563,7 +9566,7 @@
       </c>
       <c r="O56" s="94"/>
     </row>
-    <row r="57" spans="1:15" s="86" customFormat="1" ht="175.5" hidden="1">
+    <row r="57" spans="1:15" s="86" customFormat="1" ht="175.5">
       <c r="A57" s="164">
         <v>55</v>
       </c>
@@ -9600,7 +9603,7 @@
       </c>
       <c r="O57" s="94"/>
     </row>
-    <row r="58" spans="1:15" s="76" customFormat="1" ht="27" hidden="1">
+    <row r="58" spans="1:15" s="76" customFormat="1" ht="27">
       <c r="A58" s="164">
         <v>56</v>
       </c>
@@ -9637,7 +9640,7 @@
       </c>
       <c r="O58" s="75"/>
     </row>
-    <row r="59" spans="1:15" s="76" customFormat="1" ht="27" hidden="1">
+    <row r="59" spans="1:15" s="76" customFormat="1" ht="27">
       <c r="A59" s="164">
         <v>57</v>
       </c>
@@ -9761,7 +9764,7 @@
       <c r="N62" s="89"/>
       <c r="O62" s="94"/>
     </row>
-    <row r="63" spans="1:15" s="76" customFormat="1" hidden="1">
+    <row r="63" spans="1:15" s="76" customFormat="1">
       <c r="A63" s="164">
         <v>61</v>
       </c>
@@ -9831,7 +9834,7 @@
       <c r="N64" s="89"/>
       <c r="O64" s="94"/>
     </row>
-    <row r="65" spans="1:15" s="76" customFormat="1" hidden="1">
+    <row r="65" spans="1:15" s="76" customFormat="1">
       <c r="A65" s="164">
         <v>63</v>
       </c>
@@ -9870,7 +9873,7 @@
       </c>
       <c r="O65" s="75"/>
     </row>
-    <row r="66" spans="1:15" s="76" customFormat="1" hidden="1">
+    <row r="66" spans="1:15" s="76" customFormat="1">
       <c r="A66" s="164">
         <v>64</v>
       </c>
@@ -9909,7 +9912,7 @@
       </c>
       <c r="O66" s="75"/>
     </row>
-    <row r="67" spans="1:15" s="106" customFormat="1" ht="40.5" hidden="1">
+    <row r="67" spans="1:15" s="106" customFormat="1" ht="40.5">
       <c r="A67" s="164">
         <v>65</v>
       </c>
@@ -9948,7 +9951,7 @@
       </c>
       <c r="O67" s="75"/>
     </row>
-    <row r="68" spans="1:15" s="76" customFormat="1" ht="27" hidden="1">
+    <row r="68" spans="1:15" s="76" customFormat="1" ht="27">
       <c r="A68" s="164">
         <v>66</v>
       </c>
@@ -9987,7 +9990,7 @@
       </c>
       <c r="O68" s="75"/>
     </row>
-    <row r="69" spans="1:15" s="76" customFormat="1" hidden="1">
+    <row r="69" spans="1:15" s="76" customFormat="1">
       <c r="A69" s="164">
         <v>67</v>
       </c>
@@ -10026,7 +10029,7 @@
       </c>
       <c r="O69" s="75"/>
     </row>
-    <row r="70" spans="1:15" s="86" customFormat="1" ht="40.5" hidden="1">
+    <row r="70" spans="1:15" s="86" customFormat="1" ht="40.5">
       <c r="A70" s="164">
         <v>68</v>
       </c>
@@ -10065,7 +10068,7 @@
       </c>
       <c r="O70" s="94"/>
     </row>
-    <row r="71" spans="1:15" s="230" customFormat="1" ht="27" hidden="1">
+    <row r="71" spans="1:15" s="230" customFormat="1" ht="27">
       <c r="A71" s="164">
         <v>69</v>
       </c>
@@ -10106,7 +10109,7 @@
       </c>
       <c r="O71" s="229"/>
     </row>
-    <row r="72" spans="1:15" s="76" customFormat="1" hidden="1">
+    <row r="72" spans="1:15" s="76" customFormat="1">
       <c r="A72" s="164">
         <v>70</v>
       </c>
@@ -10145,7 +10148,7 @@
       </c>
       <c r="O72" s="75"/>
     </row>
-    <row r="73" spans="1:15" s="86" customFormat="1" ht="54" hidden="1">
+    <row r="73" spans="1:15" s="86" customFormat="1" ht="54">
       <c r="A73" s="164">
         <v>71</v>
       </c>
@@ -10182,7 +10185,7 @@
       </c>
       <c r="O73" s="94"/>
     </row>
-    <row r="74" spans="1:15" s="230" customFormat="1" ht="27" hidden="1">
+    <row r="74" spans="1:15" s="230" customFormat="1" ht="27">
       <c r="A74" s="164">
         <v>72</v>
       </c>
@@ -10223,7 +10226,7 @@
       </c>
       <c r="O74" s="229"/>
     </row>
-    <row r="75" spans="1:15" s="76" customFormat="1" hidden="1">
+    <row r="75" spans="1:15" s="76" customFormat="1">
       <c r="A75" s="164">
         <v>73</v>
       </c>
@@ -10262,7 +10265,7 @@
       </c>
       <c r="O75" s="75"/>
     </row>
-    <row r="76" spans="1:15" s="68" customFormat="1" ht="54" hidden="1">
+    <row r="76" spans="1:15" s="68" customFormat="1" ht="54">
       <c r="A76" s="164">
         <v>74</v>
       </c>
@@ -10299,7 +10302,7 @@
       </c>
       <c r="O76" s="94"/>
     </row>
-    <row r="77" spans="1:15" s="86" customFormat="1" ht="40.5" hidden="1">
+    <row r="77" spans="1:15" s="86" customFormat="1" ht="40.5">
       <c r="A77" s="164">
         <v>75</v>
       </c>
@@ -10334,7 +10337,7 @@
       </c>
       <c r="O77" s="94"/>
     </row>
-    <row r="78" spans="1:15" s="230" customFormat="1" ht="40.5" hidden="1">
+    <row r="78" spans="1:15" s="230" customFormat="1" ht="40.5">
       <c r="A78" s="164">
         <v>76</v>
       </c>
@@ -10373,7 +10376,7 @@
       </c>
       <c r="O78" s="229"/>
     </row>
-    <row r="79" spans="1:15" s="230" customFormat="1" ht="40.5" hidden="1">
+    <row r="79" spans="1:15" s="230" customFormat="1" ht="40.5">
       <c r="A79" s="164">
         <v>77</v>
       </c>
@@ -10441,7 +10444,7 @@
       <c r="N80" s="89"/>
       <c r="O80" s="94"/>
     </row>
-    <row r="81" spans="1:15" s="86" customFormat="1" ht="40.5" hidden="1">
+    <row r="81" spans="1:15" s="86" customFormat="1" ht="40.5">
       <c r="A81" s="164">
         <v>79</v>
       </c>
@@ -10509,7 +10512,7 @@
       <c r="N82" s="23"/>
       <c r="O82" s="28"/>
     </row>
-    <row r="83" spans="1:15" s="76" customFormat="1" ht="27" hidden="1">
+    <row r="83" spans="1:15" s="76" customFormat="1" ht="27">
       <c r="A83" s="164">
         <v>81</v>
       </c>
@@ -10546,7 +10549,7 @@
       </c>
       <c r="O83" s="75"/>
     </row>
-    <row r="84" spans="1:15" s="230" customFormat="1" hidden="1">
+    <row r="84" spans="1:15" s="230" customFormat="1">
       <c r="A84" s="164">
         <v>82</v>
       </c>
@@ -11111,7 +11114,7 @@
       </c>
       <c r="O101" s="94"/>
     </row>
-    <row r="102" spans="1:15" s="230" customFormat="1" ht="27" hidden="1">
+    <row r="102" spans="1:15" s="230" customFormat="1" ht="27">
       <c r="A102" s="164">
         <v>100</v>
       </c>
@@ -11148,7 +11151,7 @@
       </c>
       <c r="O102" s="229"/>
     </row>
-    <row r="103" spans="1:15" s="230" customFormat="1" hidden="1">
+    <row r="103" spans="1:15" s="230" customFormat="1">
       <c r="A103" s="164">
         <v>101</v>
       </c>
@@ -11185,7 +11188,7 @@
       </c>
       <c r="O103" s="229"/>
     </row>
-    <row r="104" spans="1:15" s="230" customFormat="1" ht="27" hidden="1">
+    <row r="104" spans="1:15" s="230" customFormat="1" ht="27">
       <c r="A104" s="164">
         <v>102</v>
       </c>
@@ -11222,7 +11225,7 @@
       </c>
       <c r="O104" s="229"/>
     </row>
-    <row r="105" spans="1:15" s="86" customFormat="1" ht="27" hidden="1">
+    <row r="105" spans="1:15" s="86" customFormat="1" ht="27">
       <c r="A105" s="164">
         <v>103</v>
       </c>
@@ -11257,7 +11260,7 @@
       </c>
       <c r="O105" s="94"/>
     </row>
-    <row r="106" spans="1:15" s="230" customFormat="1" hidden="1">
+    <row r="106" spans="1:15" s="230" customFormat="1">
       <c r="A106" s="164">
         <v>104</v>
       </c>
@@ -11637,7 +11640,7 @@
       <c r="N117" s="150"/>
       <c r="O117" s="154"/>
     </row>
-    <row r="118" spans="1:15" ht="40.5" hidden="1">
+    <row r="118" spans="1:15" ht="40.5">
       <c r="A118" s="164">
         <v>116</v>
       </c>
@@ -11670,7 +11673,7 @@
       <c r="N118" s="150"/>
       <c r="O118" s="154"/>
     </row>
-    <row r="119" spans="1:15" ht="27" hidden="1">
+    <row r="119" spans="1:15" ht="27">
       <c r="A119" s="164">
         <v>117</v>
       </c>
@@ -11703,7 +11706,7 @@
       <c r="N119" s="150"/>
       <c r="O119" s="154"/>
     </row>
-    <row r="120" spans="1:15" ht="94.5" hidden="1">
+    <row r="120" spans="1:15" ht="94.5">
       <c r="A120" s="164">
         <v>118</v>
       </c>
@@ -11734,7 +11737,7 @@
       <c r="N120" s="150"/>
       <c r="O120" s="154"/>
     </row>
-    <row r="121" spans="1:15" ht="108" hidden="1">
+    <row r="121" spans="1:15" ht="108">
       <c r="A121" s="164">
         <v>119</v>
       </c>
@@ -11823,7 +11826,7 @@
       <c r="N123" s="221"/>
       <c r="O123" s="218"/>
     </row>
-    <row r="124" spans="1:15" ht="40.5" hidden="1">
+    <row r="124" spans="1:15" ht="40.5">
       <c r="A124" s="164">
         <v>122</v>
       </c>
@@ -11854,7 +11857,7 @@
       <c r="N124" s="221"/>
       <c r="O124" s="218"/>
     </row>
-    <row r="125" spans="1:15" ht="40.5" hidden="1">
+    <row r="125" spans="1:15" ht="40.5">
       <c r="A125" s="164">
         <v>123</v>
       </c>
@@ -11941,7 +11944,9 @@
       <c r="H127" s="215"/>
       <c r="I127" s="223"/>
       <c r="J127" s="221"/>
-      <c r="K127" s="215"/>
+      <c r="K127" s="215" t="s">
+        <v>275</v>
+      </c>
       <c r="L127" s="217"/>
       <c r="M127" s="217"/>
       <c r="N127" s="221"/>
@@ -12258,14 +12263,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:O136">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="返回"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="7"/>
+    <filterColumn colId="10"/>
     <filterColumn colId="11"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
